--- a/Dat/BaseDeDatosUsuarios.xlsx
+++ b/Dat/BaseDeDatosUsuarios.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotace\Desktop\HealthApp\Dat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482CC2C2-0B76-49C4-9ACA-AFB71DEE875A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -88,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,11 +158,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -198,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +244,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +296,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,14 +489,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>71308125</v>
       </c>
@@ -504,7 +556,7 @@
         <v>178</v>
       </c>
       <c r="H2">
-        <v>73.40000000000001</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="I2">
         <v>4</v>
@@ -516,7 +568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1234</v>
       </c>
@@ -551,7 +603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -586,7 +638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>

--- a/Dat/BaseDeDatosUsuarios.xlsx
+++ b/Dat/BaseDeDatosUsuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotace\Desktop\HealthApp\Dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482CC2C2-0B76-49C4-9ACA-AFB71DEE875A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3CB593-58C3-4396-BA37-DB1B96B0B3F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,10 +73,10 @@
     <t>Calvo</t>
   </si>
   <si>
-    <t>Garcia</t>
-  </si>
-  <si>
-    <t>Perez</t>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Maria</t>
   </si>
   <si>
     <t>H</t>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A6" sqref="A6:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,27 +620,27 @@
         <v>19</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G4">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H4">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -658,13 +658,13 @@
         <v>21</v>
       </c>
       <c r="G5">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H5">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>1</v>

--- a/Dat/BaseDeDatosUsuarios.xlsx
+++ b/Dat/BaseDeDatosUsuarios.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotace\Desktop\HealthApp\Dat\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3CB593-58C3-4396-BA37-DB1B96B0B3F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -65,6 +59,9 @@
   </si>
   <si>
     <t>Ana</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>carro</t>
@@ -94,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,19 +155,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -212,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,27 +233,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,24 +267,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,16 +442,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>71308125</v>
       </c>
@@ -541,13 +492,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>1234</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>24</v>
@@ -556,7 +507,7 @@
         <v>178</v>
       </c>
       <c r="H2">
-        <v>73.400000000000006</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I2">
         <v>4</v>
@@ -565,10 +516,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1234</v>
       </c>
@@ -576,13 +527,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>1234</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>21</v>
@@ -600,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1</v>
       </c>
@@ -611,13 +562,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1234</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>33</v>
@@ -635,10 +586,10 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>7</v>
       </c>
@@ -646,13 +597,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>21</v>
@@ -670,7 +621,42 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Dat/BaseDeDatosUsuarios.xlsx
+++ b/Dat/BaseDeDatosUsuarios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -64,6 +64,9 @@
     <t>9</t>
   </si>
   <si>
+    <t>Juanito</t>
+  </si>
+  <si>
     <t>carro</t>
   </si>
   <si>
@@ -74,6 +77,12 @@
   </si>
   <si>
     <t>Maria</t>
+  </si>
+  <si>
+    <t>Los palotes</t>
+  </si>
+  <si>
+    <t>hola</t>
   </si>
   <si>
     <t>H</t>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,13 +501,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1234</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>24</v>
@@ -516,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -527,13 +536,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>1234</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>21</v>
@@ -551,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -562,13 +571,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>1234</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>33</v>
@@ -586,7 +595,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -597,13 +606,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>21</v>
@@ -621,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -634,11 +643,11 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
+      <c r="D6">
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -656,7 +665,42 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>123456789</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
+      </c>
+      <c r="F7">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>168</v>
+      </c>
+      <c r="H7">
+        <v>55</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Dat/BaseDeDatosUsuarios.xlsx
+++ b/Dat/BaseDeDatosUsuarios.xlsx
@@ -73,7 +73,7 @@
     <t>Calvo</t>
   </si>
   <si>
-    <t>Sanchez</t>
+    <t>Sancho</t>
   </si>
   <si>
     <t>Maria</t>

--- a/Dat/BaseDeDatosUsuarios.xlsx
+++ b/Dat/BaseDeDatosUsuarios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -61,10 +61,7 @@
     <t>Ana</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Juanito</t>
+    <t>Juan</t>
   </si>
   <si>
     <t>carro</t>
@@ -79,10 +76,10 @@
     <t>Maria</t>
   </si>
   <si>
-    <t>Los palotes</t>
-  </si>
-  <si>
-    <t>hola</t>
+    <t>Fibrosis</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>H</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,13 +498,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>1234</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>24</v>
@@ -525,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -536,13 +533,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>1234</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>21</v>
@@ -557,10 +554,10 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,13 +568,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1234</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>33</v>
@@ -595,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,13 +603,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>21</v>
@@ -627,80 +624,45 @@
         <v>3</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>123456789</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>168</v>
-      </c>
-      <c r="H7">
-        <v>55</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Dat/BaseDeDatosUsuarios.xlsx
+++ b/Dat/BaseDeDatosUsuarios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Fibrosis</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>H</t>
@@ -504,7 +501,7 @@
         <v>1234</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>24</v>
@@ -522,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -539,7 +536,7 @@
         <v>1234</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>21</v>
@@ -557,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -574,7 +571,7 @@
         <v>1234</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>33</v>
@@ -592,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -609,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>21</v>
@@ -627,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -640,11 +637,11 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
       <c r="F6">
         <v>60</v>
@@ -662,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Dat/BaseDeDatosUsuarios.xlsx
+++ b/Dat/BaseDeDatosUsuarios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Guille</t>
   </si>
   <si>
-    <t>Pedro</t>
+    <t>Juanito</t>
   </si>
   <si>
     <t>Ana</t>
@@ -70,7 +70,7 @@
     <t>Calvo</t>
   </si>
   <si>
-    <t>Sancho</t>
+    <t>Garbanzito</t>
   </si>
   <si>
     <t>Maria</t>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>subir</t>
+  </si>
+  <si>
+    <t>bajar</t>
   </si>
   <si>
     <t>mantener</t>
@@ -574,13 +577,13 @@
         <v>21</v>
       </c>
       <c r="F4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H4">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -624,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -659,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Dat/BaseDeDatosUsuarios.xlsx
+++ b/Dat/BaseDeDatosUsuarios.xlsx
@@ -583,10 +583,10 @@
         <v>183</v>
       </c>
       <c r="H4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>2</v>

--- a/Dat/BaseDeDatosUsuarios.xlsx
+++ b/Dat/BaseDeDatosUsuarios.xlsx
@@ -55,7 +55,7 @@
     <t>Guille</t>
   </si>
   <si>
-    <t>Juanito</t>
+    <t>Juanjo</t>
   </si>
   <si>
     <t>Ana</t>

--- a/Dat/BaseDeDatosUsuarios.xlsx
+++ b/Dat/BaseDeDatosUsuarios.xlsx
@@ -583,13 +583,13 @@
         <v>183</v>
       </c>
       <c r="H4">
-        <v>79</v>
+        <v>80.2</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
         <v>24</v>
